--- a/hot-deploy/partner/document/常用SQL/20140708/2014年06月库存情况比较.xlsx
+++ b/hot-deploy/partner/document/常用SQL/20140708/2014年06月库存情况比较.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="596">
   <si>
     <t>010f8fcc-c252-418f-8be4-963e87c3bec4</t>
   </si>
@@ -1801,6 +1801,66 @@
   </si>
   <si>
     <t>未更新前</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010床侧板(P28)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制服装架亚中(P54)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>立式衣物架（黑色）新包装（P54）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制T台架亚中（P56）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降晒衣架（P21）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>70新槽架（亚中）（P24）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100新槽架（P12）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制台脚（白）新包装（P256）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制T台架亚中（P48）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4d9b52f3-a6cc-4d2a-a4c8-19a8350cab32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6f49ba55-6eb9-4897-96ee-016e8b7bbee1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>73aaec86-72bc-4983-bc5b-88f03788bfc7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1690aa9-4a01-4497-a1f9-f446ce2c3bfe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7d75f26-439d-4e45-888e-43960dc3d2f4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed37cb36-da89-4c04-9a55-f90eb07231e1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1808,6 +1868,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1978,7 +2041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2170,8 +2233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2299,6 +2368,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2430,7 +2510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,6 +2536,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2780,19 +2875,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:H426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H281" sqref="H281"/>
+      <selection activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3346,7 +3442,7 @@
       <c r="B26" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>4</v>
       </c>
       <c r="D26" s="3">
@@ -3562,13 +3658,13 @@
       <c r="B36" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="3">
-        <v>8</v>
+      <c r="C36" s="5">
+        <v>6</v>
       </c>
       <c r="D36" s="3">
         <v>6903.2989530000004</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="7">
         <v>6</v>
       </c>
       <c r="F36" s="3">
@@ -3576,7 +3672,7 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
@@ -4547,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>36</v>
       </c>
@@ -4571,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>37</v>
       </c>
@@ -4595,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>38</v>
       </c>
@@ -4619,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>39</v>
       </c>
@@ -4643,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>40</v>
       </c>
@@ -4667,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>407</v>
       </c>
@@ -4687,20 +4783,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="5">
         <v>44</v>
       </c>
       <c r="D87" s="3">
         <v>63154.347275</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="7">
         <v>44</v>
       </c>
       <c r="F87" s="3">
@@ -4710,8 +4806,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H87" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>410</v>
       </c>
@@ -4731,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>412</v>
       </c>
@@ -4751,12 +4850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
-        <v>414</v>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
       <c r="C90" s="3">
         <v>13</v>
@@ -4764,7 +4863,7 @@
       <c r="D90" s="3">
         <v>30150.941483999999</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="5">
         <v>0</v>
       </c>
       <c r="F90" s="3">
@@ -4775,7 +4874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>416</v>
       </c>
@@ -4795,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>418</v>
       </c>
@@ -4815,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>420</v>
       </c>
@@ -4835,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>422</v>
       </c>
@@ -4855,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -4879,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>424</v>
       </c>
@@ -5623,12 +5722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="3" t="s">
-        <v>448</v>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="11" t="s">
+        <v>591</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>320</v>
+        <v>582</v>
       </c>
       <c r="C129" s="3">
         <v>11</v>
@@ -5646,13 +5745,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="3" t="s">
-        <v>63</v>
+      <c r="H129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>219</v>
+        <v>583</v>
       </c>
       <c r="C130" s="3">
         <v>53</v>
@@ -5660,7 +5762,7 @@
       <c r="D130" s="3">
         <v>61602.898127</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="5">
         <v>54</v>
       </c>
       <c r="F130" s="3">
@@ -5670,8 +5772,11 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H130" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>449</v>
       </c>
@@ -5691,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>64</v>
       </c>
@@ -5715,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
         <v>65</v>
       </c>
@@ -5739,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>451</v>
       </c>
@@ -5759,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
         <v>453</v>
       </c>
@@ -5779,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>66</v>
       </c>
@@ -5803,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>67</v>
       </c>
@@ -5827,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>455</v>
       </c>
@@ -5847,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
         <v>68</v>
       </c>
@@ -5871,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>69</v>
       </c>
@@ -5895,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>70</v>
       </c>
@@ -5919,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>71</v>
       </c>
@@ -5943,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>72</v>
       </c>
@@ -5967,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>73</v>
       </c>
@@ -6084,9 +6189,9 @@
         <v>76</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C149" s="3">
+        <v>584</v>
+      </c>
+      <c r="C149" s="5">
         <v>0</v>
       </c>
       <c r="D149" s="3">
@@ -6132,15 +6237,15 @@
         <v>78</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C151" s="3">
-        <v>8</v>
+        <v>585</v>
+      </c>
+      <c r="C151" s="5">
+        <v>6</v>
       </c>
       <c r="D151" s="3">
         <v>8020.8073599999998</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="7">
         <v>6</v>
       </c>
       <c r="F151" s="3">
@@ -6148,7 +6253,7 @@
       </c>
       <c r="G151" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
@@ -7455,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>493</v>
       </c>
@@ -7475,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>495</v>
       </c>
@@ -7495,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
         <v>497</v>
       </c>
@@ -7515,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>499</v>
       </c>
@@ -7535,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
         <v>501</v>
       </c>
@@ -7555,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
         <v>503</v>
       </c>
@@ -7575,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
         <v>505</v>
       </c>
@@ -7595,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>120</v>
       </c>
@@ -7619,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>507</v>
       </c>
@@ -7639,12 +7744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" s="3" t="s">
-        <v>509</v>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A218" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="C218" s="3">
         <v>12</v>
@@ -7662,8 +7767,11 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H218" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
         <v>121</v>
       </c>
@@ -7687,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>511</v>
       </c>
@@ -7707,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
         <v>513</v>
       </c>
@@ -7727,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
         <v>122</v>
       </c>
@@ -7751,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
         <v>515</v>
       </c>
@@ -7771,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
         <v>517</v>
       </c>
@@ -8159,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
         <v>134</v>
       </c>
@@ -8183,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
         <v>529</v>
       </c>
@@ -8203,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
         <v>135</v>
       </c>
@@ -8227,12 +8335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A244" s="3" t="s">
-        <v>531</v>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A244" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="C244" s="3">
         <v>84</v>
@@ -8250,8 +8358,11 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H244" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
         <v>136</v>
       </c>
@@ -8275,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
         <v>137</v>
       </c>
@@ -8299,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
         <v>533</v>
       </c>
@@ -8319,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
         <v>535</v>
       </c>
@@ -8339,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
         <v>537</v>
       </c>
@@ -8359,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
         <v>539</v>
       </c>
@@ -8379,20 +8490,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>138</v>
+        <v>595</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="C251" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D251" s="3">
         <v>76283.796057</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251" s="5">
         <v>28</v>
       </c>
       <c r="F251" s="3">
@@ -8400,10 +8511,13 @@
       </c>
       <c r="G251" s="1">
         <f t="shared" si="3"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <v>-16</v>
+      </c>
+      <c r="H251" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
         <v>139</v>
       </c>
@@ -8427,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
         <v>541</v>
       </c>
@@ -8451,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
         <v>140</v>
       </c>
@@ -8475,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
         <v>543</v>
       </c>
@@ -8495,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
         <v>141</v>
       </c>
@@ -8776,9 +8890,9 @@
         <v>150</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C268" s="3">
+        <v>589</v>
+      </c>
+      <c r="C268" s="5">
         <v>0</v>
       </c>
       <c r="D268" s="3">
@@ -8933,6 +9047,1716 @@
       <c r="G274" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D276">
+        <f>D218/C218*H218</f>
+        <v>12133.162026666667</v>
+      </c>
+      <c r="E276">
+        <f>D244/C244*90</f>
+        <v>45866.930683928578</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
+        <v>349</v>
+      </c>
+      <c r="C278" t="s">
+        <v>350</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+      <c r="E278">
+        <v>3065.0830420000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>169</v>
+      </c>
+      <c r="D279">
+        <v>6</v>
+      </c>
+      <c r="E279">
+        <v>5177.4742370000004</v>
+      </c>
+      <c r="F279">
+        <v>6</v>
+      </c>
+      <c r="G279">
+        <v>5177.4741169999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>164310.91750000001</v>
+      </c>
+      <c r="B280" t="s">
+        <v>409</v>
+      </c>
+      <c r="C280" t="s">
+        <v>319</v>
+      </c>
+      <c r="D280">
+        <v>44</v>
+      </c>
+      <c r="E280">
+        <v>63154.347275</v>
+      </c>
+      <c r="F280">
+        <v>44</v>
+      </c>
+      <c r="G280">
+        <v>63154.347275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A281" s="12">
+        <v>5868.2169999999996</v>
+      </c>
+      <c r="B281" t="s">
+        <v>414</v>
+      </c>
+      <c r="C281" t="s">
+        <v>415</v>
+      </c>
+      <c r="D281">
+        <v>13</v>
+      </c>
+      <c r="E281">
+        <v>30150.941483999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A282" s="13">
+        <f>A280-A281</f>
+        <v>158442.70050000001</v>
+      </c>
+      <c r="B282" t="s">
+        <v>448</v>
+      </c>
+      <c r="C282" t="s">
+        <v>320</v>
+      </c>
+      <c r="D282">
+        <v>11</v>
+      </c>
+      <c r="E282">
+        <v>45593.9499</v>
+      </c>
+      <c r="F282">
+        <v>11</v>
+      </c>
+      <c r="G282">
+        <v>45593.9499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B283" t="s">
+        <v>63</v>
+      </c>
+      <c r="C283" t="s">
+        <v>219</v>
+      </c>
+      <c r="D283">
+        <v>53</v>
+      </c>
+      <c r="E283">
+        <v>61602.898127</v>
+      </c>
+      <c r="F283">
+        <v>54</v>
+      </c>
+      <c r="G283">
+        <v>62814.878345999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B284" t="s">
+        <v>76</v>
+      </c>
+      <c r="C284" t="s">
+        <v>232</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>3</v>
+      </c>
+      <c r="G284">
+        <v>5696.7762329999996</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B285" t="s">
+        <v>78</v>
+      </c>
+      <c r="C285" t="s">
+        <v>234</v>
+      </c>
+      <c r="D285">
+        <v>6</v>
+      </c>
+      <c r="E285">
+        <v>6015.6055509999997</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285">
+        <v>6015.6054489999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B286" t="s">
+        <v>509</v>
+      </c>
+      <c r="C286" t="s">
+        <v>510</v>
+      </c>
+      <c r="D286">
+        <v>12</v>
+      </c>
+      <c r="E286">
+        <v>9099.8715200000006</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B287" t="s">
+        <v>531</v>
+      </c>
+      <c r="C287" t="s">
+        <v>532</v>
+      </c>
+      <c r="D287">
+        <v>84</v>
+      </c>
+      <c r="E287">
+        <v>42809.135305000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B288" t="s">
+        <v>138</v>
+      </c>
+      <c r="C288" t="s">
+        <v>294</v>
+      </c>
+      <c r="D288">
+        <v>12</v>
+      </c>
+      <c r="E288">
+        <v>70415.578569000005</v>
+      </c>
+      <c r="F288">
+        <v>28</v>
+      </c>
+      <c r="G288">
+        <v>164310.917499</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B289" t="s">
+        <v>150</v>
+      </c>
+      <c r="C289" t="s">
+        <v>306</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>3</v>
+      </c>
+      <c r="G289">
+        <v>4892.7022710000001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B293" t="s">
+        <v>216</v>
+      </c>
+      <c r="C293">
+        <v>28</v>
+      </c>
+      <c r="E293" t="s">
+        <v>216</v>
+      </c>
+      <c r="F293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B294" t="s">
+        <v>222</v>
+      </c>
+      <c r="C294">
+        <v>25</v>
+      </c>
+      <c r="E294" t="s">
+        <v>222</v>
+      </c>
+      <c r="F294">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B295" t="s">
+        <v>201</v>
+      </c>
+      <c r="C295">
+        <v>40</v>
+      </c>
+      <c r="E295" t="s">
+        <v>201</v>
+      </c>
+      <c r="F295">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296">
+        <v>136</v>
+      </c>
+      <c r="E296" t="s">
+        <v>298</v>
+      </c>
+      <c r="F296">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B297" t="s">
+        <v>280</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="E297" t="s">
+        <v>292</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B298" t="s">
+        <v>163</v>
+      </c>
+      <c r="C298">
+        <v>86</v>
+      </c>
+      <c r="E298" t="s">
+        <v>280</v>
+      </c>
+      <c r="F298">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B299" t="s">
+        <v>275</v>
+      </c>
+      <c r="C299">
+        <v>80</v>
+      </c>
+      <c r="E299" t="s">
+        <v>210</v>
+      </c>
+      <c r="F299">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B300" t="s">
+        <v>182</v>
+      </c>
+      <c r="C300">
+        <v>40</v>
+      </c>
+      <c r="E300" t="s">
+        <v>163</v>
+      </c>
+      <c r="F300">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B301" t="s">
+        <v>276</v>
+      </c>
+      <c r="C301">
+        <v>14</v>
+      </c>
+      <c r="E301" t="s">
+        <v>275</v>
+      </c>
+      <c r="F301">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B302" t="s">
+        <v>269</v>
+      </c>
+      <c r="C302">
+        <v>15</v>
+      </c>
+      <c r="E302" t="s">
+        <v>182</v>
+      </c>
+      <c r="F302">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B303" t="s">
+        <v>258</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+      <c r="E303" t="s">
+        <v>276</v>
+      </c>
+      <c r="F303">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B304" t="s">
+        <v>174</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>269</v>
+      </c>
+      <c r="F304">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B305" t="s">
+        <v>319</v>
+      </c>
+      <c r="C305">
+        <v>120</v>
+      </c>
+      <c r="E305" t="s">
+        <v>277</v>
+      </c>
+      <c r="F305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B306" t="s">
+        <v>206</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="E306" t="s">
+        <v>176</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B307" t="s">
+        <v>284</v>
+      </c>
+      <c r="C307">
+        <v>10</v>
+      </c>
+      <c r="E307" t="s">
+        <v>270</v>
+      </c>
+      <c r="F307">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B308" t="s">
+        <v>237</v>
+      </c>
+      <c r="C308">
+        <v>82</v>
+      </c>
+      <c r="E308" t="s">
+        <v>193</v>
+      </c>
+      <c r="F308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B309" t="s">
+        <v>264</v>
+      </c>
+      <c r="C309">
+        <v>25</v>
+      </c>
+      <c r="E309" t="s">
+        <v>258</v>
+      </c>
+      <c r="F309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B310" t="s">
+        <v>161</v>
+      </c>
+      <c r="C310">
+        <v>12</v>
+      </c>
+      <c r="E310" t="s">
+        <v>309</v>
+      </c>
+      <c r="F310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B311" t="s">
+        <v>305</v>
+      </c>
+      <c r="C311">
+        <v>33</v>
+      </c>
+      <c r="E311" t="s">
+        <v>520</v>
+      </c>
+      <c r="F311">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B312" t="s">
+        <v>225</v>
+      </c>
+      <c r="C312">
+        <v>23</v>
+      </c>
+      <c r="E312" t="s">
+        <v>174</v>
+      </c>
+      <c r="F312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B313" t="s">
+        <v>254</v>
+      </c>
+      <c r="C313">
+        <v>76</v>
+      </c>
+      <c r="E313" t="s">
+        <v>319</v>
+      </c>
+      <c r="F313">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B314" t="s">
+        <v>214</v>
+      </c>
+      <c r="C314">
+        <v>37</v>
+      </c>
+      <c r="E314" t="s">
+        <v>220</v>
+      </c>
+      <c r="F314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B315" t="s">
+        <v>170</v>
+      </c>
+      <c r="C315">
+        <v>14</v>
+      </c>
+      <c r="E315" t="s">
+        <v>252</v>
+      </c>
+      <c r="F315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B316" t="s">
+        <v>238</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+      <c r="E316" t="s">
+        <v>211</v>
+      </c>
+      <c r="F316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B317" t="s">
+        <v>198</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
+        <v>206</v>
+      </c>
+      <c r="F317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B318" t="s">
+        <v>158</v>
+      </c>
+      <c r="C318">
+        <v>10</v>
+      </c>
+      <c r="E318" t="s">
+        <v>284</v>
+      </c>
+      <c r="F318">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B319" t="s">
+        <v>303</v>
+      </c>
+      <c r="C319">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>237</v>
+      </c>
+      <c r="F319">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B320" t="s">
+        <v>209</v>
+      </c>
+      <c r="C320">
+        <v>33</v>
+      </c>
+      <c r="E320" t="s">
+        <v>255</v>
+      </c>
+      <c r="F320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B321" t="s">
+        <v>164</v>
+      </c>
+      <c r="C321">
+        <v>10</v>
+      </c>
+      <c r="E321" t="s">
+        <v>264</v>
+      </c>
+      <c r="F321">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B322" t="s">
+        <v>223</v>
+      </c>
+      <c r="C322">
+        <v>52</v>
+      </c>
+      <c r="E322" t="s">
+        <v>217</v>
+      </c>
+      <c r="F322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B323" t="s">
+        <v>207</v>
+      </c>
+      <c r="C323">
+        <v>60</v>
+      </c>
+      <c r="E323" t="s">
+        <v>161</v>
+      </c>
+      <c r="F323">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B324" t="s">
+        <v>231</v>
+      </c>
+      <c r="C324">
+        <v>18</v>
+      </c>
+      <c r="E324" t="s">
+        <v>268</v>
+      </c>
+      <c r="F324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B325" t="s">
+        <v>213</v>
+      </c>
+      <c r="C325">
+        <v>30</v>
+      </c>
+      <c r="E325" t="s">
+        <v>241</v>
+      </c>
+      <c r="F325">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B326" t="s">
+        <v>273</v>
+      </c>
+      <c r="C326">
+        <v>142</v>
+      </c>
+      <c r="E326" t="s">
+        <v>288</v>
+      </c>
+      <c r="F326">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B327" t="s">
+        <v>265</v>
+      </c>
+      <c r="C327">
+        <v>152</v>
+      </c>
+      <c r="E327" t="s">
+        <v>243</v>
+      </c>
+      <c r="F327">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B328" t="s">
+        <v>227</v>
+      </c>
+      <c r="C328">
+        <v>20</v>
+      </c>
+      <c r="E328" t="s">
+        <v>301</v>
+      </c>
+      <c r="F328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B329" t="s">
+        <v>202</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="E329" t="s">
+        <v>293</v>
+      </c>
+      <c r="F329">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B330" t="s">
+        <v>311</v>
+      </c>
+      <c r="C330">
+        <v>317</v>
+      </c>
+      <c r="E330" t="s">
+        <v>162</v>
+      </c>
+      <c r="F330">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B331" t="s">
+        <v>179</v>
+      </c>
+      <c r="C331">
+        <v>30</v>
+      </c>
+      <c r="E331" t="s">
+        <v>188</v>
+      </c>
+      <c r="F331">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B332" t="s">
+        <v>215</v>
+      </c>
+      <c r="C332">
+        <v>16</v>
+      </c>
+      <c r="E332" t="s">
+        <v>283</v>
+      </c>
+      <c r="F332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B333" t="s">
+        <v>285</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="E333" t="s">
+        <v>305</v>
+      </c>
+      <c r="F333">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B334" t="s">
+        <v>226</v>
+      </c>
+      <c r="C334">
+        <v>20</v>
+      </c>
+      <c r="E334" t="s">
+        <v>225</v>
+      </c>
+      <c r="F334">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B335" t="s">
+        <v>279</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+      <c r="E335" t="s">
+        <v>254</v>
+      </c>
+      <c r="F335">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B336" t="s">
+        <v>251</v>
+      </c>
+      <c r="C336">
+        <v>5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>214</v>
+      </c>
+      <c r="F336">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B337" t="s">
+        <v>165</v>
+      </c>
+      <c r="C337">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>170</v>
+      </c>
+      <c r="F337">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B338" t="s">
+        <v>230</v>
+      </c>
+      <c r="C338">
+        <v>5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>238</v>
+      </c>
+      <c r="F338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B339" t="s">
+        <v>239</v>
+      </c>
+      <c r="C339">
+        <v>41</v>
+      </c>
+      <c r="E339" t="s">
+        <v>198</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B340" t="s">
+        <v>199</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="E340" t="s">
+        <v>158</v>
+      </c>
+      <c r="F340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B341" t="s">
+        <v>212</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="E341" t="s">
+        <v>175</v>
+      </c>
+      <c r="F341">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B342" t="s">
+        <v>173</v>
+      </c>
+      <c r="C342">
+        <v>7</v>
+      </c>
+      <c r="E342" t="s">
+        <v>235</v>
+      </c>
+      <c r="F342">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B343" t="s">
+        <v>178</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+      <c r="E343" t="s">
+        <v>236</v>
+      </c>
+      <c r="F343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B344" t="s">
+        <v>190</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="E344" t="s">
+        <v>180</v>
+      </c>
+      <c r="F344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B345" t="s">
+        <v>294</v>
+      </c>
+      <c r="C345">
+        <v>10</v>
+      </c>
+      <c r="E345" t="s">
+        <v>303</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B346" t="s">
+        <v>286</v>
+      </c>
+      <c r="C346">
+        <v>20</v>
+      </c>
+      <c r="E346" t="s">
+        <v>299</v>
+      </c>
+      <c r="F346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B347" t="s">
+        <v>167</v>
+      </c>
+      <c r="C347">
+        <v>31</v>
+      </c>
+      <c r="E347" t="s">
+        <v>253</v>
+      </c>
+      <c r="F347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B348" t="s">
+        <v>195</v>
+      </c>
+      <c r="C348">
+        <v>40</v>
+      </c>
+      <c r="E348" t="s">
+        <v>209</v>
+      </c>
+      <c r="F348">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B349" t="s">
+        <v>168</v>
+      </c>
+      <c r="C349">
+        <v>105</v>
+      </c>
+      <c r="E349" t="s">
+        <v>156</v>
+      </c>
+      <c r="F349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B350" t="s">
+        <v>228</v>
+      </c>
+      <c r="C350">
+        <v>20</v>
+      </c>
+      <c r="E350" t="s">
+        <v>164</v>
+      </c>
+      <c r="F350">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B351" t="s">
+        <v>166</v>
+      </c>
+      <c r="C351">
+        <v>6</v>
+      </c>
+      <c r="E351" t="s">
+        <v>223</v>
+      </c>
+      <c r="F351">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B352" t="s">
+        <v>160</v>
+      </c>
+      <c r="C352">
+        <v>36</v>
+      </c>
+      <c r="E352" t="s">
+        <v>240</v>
+      </c>
+      <c r="F352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B353" t="s">
+        <v>205</v>
+      </c>
+      <c r="C353">
+        <v>15</v>
+      </c>
+      <c r="E353" t="s">
+        <v>291</v>
+      </c>
+      <c r="F353">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B354" t="s">
+        <v>246</v>
+      </c>
+      <c r="C354">
+        <v>40</v>
+      </c>
+      <c r="E354" t="s">
+        <v>207</v>
+      </c>
+      <c r="F354">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B355" t="s">
+        <v>300</v>
+      </c>
+      <c r="C355">
+        <v>40</v>
+      </c>
+      <c r="E355" t="s">
+        <v>282</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B356" t="s">
+        <v>260</v>
+      </c>
+      <c r="C356">
+        <v>60</v>
+      </c>
+      <c r="E356" t="s">
+        <v>231</v>
+      </c>
+      <c r="F356">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B357" t="s">
+        <v>250</v>
+      </c>
+      <c r="C357">
+        <v>137</v>
+      </c>
+      <c r="E357" t="s">
+        <v>213</v>
+      </c>
+      <c r="F357">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B358" t="s">
+        <v>297</v>
+      </c>
+      <c r="C358">
+        <v>20</v>
+      </c>
+      <c r="E358" t="s">
+        <v>273</v>
+      </c>
+      <c r="F358">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B359" t="s">
+        <v>249</v>
+      </c>
+      <c r="C359">
+        <v>45</v>
+      </c>
+      <c r="E359" t="s">
+        <v>274</v>
+      </c>
+      <c r="F359">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E360" t="s">
+        <v>265</v>
+      </c>
+      <c r="F360">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E361" t="s">
+        <v>227</v>
+      </c>
+      <c r="F361">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E362" t="s">
+        <v>202</v>
+      </c>
+      <c r="F362">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E363" t="s">
+        <v>247</v>
+      </c>
+      <c r="F363">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E364" t="s">
+        <v>311</v>
+      </c>
+      <c r="F364">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E365" t="s">
+        <v>179</v>
+      </c>
+      <c r="F365">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E366" t="s">
+        <v>296</v>
+      </c>
+      <c r="F366">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E367" t="s">
+        <v>261</v>
+      </c>
+      <c r="F367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E368" t="s">
+        <v>215</v>
+      </c>
+      <c r="F368">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E369" t="s">
+        <v>184</v>
+      </c>
+      <c r="F369">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E370" t="s">
+        <v>191</v>
+      </c>
+      <c r="F370">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E371" t="s">
+        <v>287</v>
+      </c>
+      <c r="F371">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E372" t="s">
+        <v>244</v>
+      </c>
+      <c r="F372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E373" t="s">
+        <v>304</v>
+      </c>
+      <c r="F373">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E374" t="s">
+        <v>172</v>
+      </c>
+      <c r="F374">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E375" t="s">
+        <v>186</v>
+      </c>
+      <c r="F375">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E376" t="s">
+        <v>285</v>
+      </c>
+      <c r="F376">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E377" t="s">
+        <v>226</v>
+      </c>
+      <c r="F377">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E378" t="s">
+        <v>279</v>
+      </c>
+      <c r="F378">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E379" t="s">
+        <v>536</v>
+      </c>
+      <c r="F379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E380" t="s">
+        <v>251</v>
+      </c>
+      <c r="F380">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E381" t="s">
+        <v>302</v>
+      </c>
+      <c r="F381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E382" t="s">
+        <v>165</v>
+      </c>
+      <c r="F382">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E383" t="s">
+        <v>230</v>
+      </c>
+      <c r="F383">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E384" t="s">
+        <v>239</v>
+      </c>
+      <c r="F384">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="385" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E385" t="s">
+        <v>245</v>
+      </c>
+      <c r="F385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E386" t="s">
+        <v>199</v>
+      </c>
+      <c r="F386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E387" t="s">
+        <v>212</v>
+      </c>
+      <c r="F387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E388" t="s">
+        <v>208</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E389" t="s">
+        <v>310</v>
+      </c>
+      <c r="F389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E390" t="s">
+        <v>248</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E391" t="s">
+        <v>219</v>
+      </c>
+      <c r="F391">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="392" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E392" t="s">
+        <v>173</v>
+      </c>
+      <c r="F392">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E393" t="s">
+        <v>242</v>
+      </c>
+      <c r="F393">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="394" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E394" t="s">
+        <v>200</v>
+      </c>
+      <c r="F394">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E395" t="s">
+        <v>178</v>
+      </c>
+      <c r="F395">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E396" t="s">
+        <v>190</v>
+      </c>
+      <c r="F396">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E397" t="s">
+        <v>294</v>
+      </c>
+      <c r="F397">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E398" t="s">
+        <v>290</v>
+      </c>
+      <c r="F398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E399" t="s">
+        <v>221</v>
+      </c>
+      <c r="F399">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="400" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E400" t="s">
+        <v>189</v>
+      </c>
+      <c r="F400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E401" t="s">
+        <v>320</v>
+      </c>
+      <c r="F401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E402" t="s">
+        <v>192</v>
+      </c>
+      <c r="F402">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="403" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E403" t="s">
+        <v>295</v>
+      </c>
+      <c r="F403">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="404" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E404" t="s">
+        <v>286</v>
+      </c>
+      <c r="F404">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="405" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E405" t="s">
+        <v>167</v>
+      </c>
+      <c r="F405">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="406" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E406" t="s">
+        <v>195</v>
+      </c>
+      <c r="F406">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="407" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E407" t="s">
+        <v>168</v>
+      </c>
+      <c r="F407">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="408" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E408" t="s">
+        <v>228</v>
+      </c>
+      <c r="F408">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E409" t="s">
+        <v>159</v>
+      </c>
+      <c r="F409">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E410" t="s">
+        <v>233</v>
+      </c>
+      <c r="F410">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="411" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E411" t="s">
+        <v>171</v>
+      </c>
+      <c r="F411">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E412" t="s">
+        <v>166</v>
+      </c>
+      <c r="F412">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E413" t="s">
+        <v>256</v>
+      </c>
+      <c r="F413">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="414" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E414" t="s">
+        <v>160</v>
+      </c>
+      <c r="F414">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E415" t="s">
+        <v>205</v>
+      </c>
+      <c r="F415">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E416" t="s">
+        <v>246</v>
+      </c>
+      <c r="F416">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E417" t="s">
+        <v>300</v>
+      </c>
+      <c r="F417">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E418" t="s">
+        <v>260</v>
+      </c>
+      <c r="F418">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="419" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E419" t="s">
+        <v>229</v>
+      </c>
+      <c r="F419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E420" t="s">
+        <v>259</v>
+      </c>
+      <c r="F420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E421" t="s">
+        <v>185</v>
+      </c>
+      <c r="F421">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E422" t="s">
+        <v>250</v>
+      </c>
+      <c r="F422">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="423" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E423" t="s">
+        <v>297</v>
+      </c>
+      <c r="F423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E424" t="s">
+        <v>278</v>
+      </c>
+      <c r="F424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E425" t="s">
+        <v>249</v>
+      </c>
+      <c r="F425">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E426" t="s">
+        <v>289</v>
+      </c>
+      <c r="F426">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9478,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
@@ -9878,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>138</v>
       </c>
